--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.23960119633173</v>
+        <v>5.437669333333333</v>
       </c>
       <c r="H2">
-        <v>5.23960119633173</v>
+        <v>16.313008</v>
       </c>
       <c r="I2">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="J2">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.328199871363496</v>
+        <v>0.644332</v>
       </c>
       <c r="N2">
-        <v>0.328199871363496</v>
+        <v>1.932996</v>
       </c>
       <c r="O2">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="P2">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="Q2">
-        <v>1.719636438632093</v>
+        <v>3.503664356885333</v>
       </c>
       <c r="R2">
-        <v>1.719636438632093</v>
+        <v>31.532979211968</v>
       </c>
       <c r="S2">
-        <v>0.003611904920999203</v>
+        <v>0.005020156313188762</v>
       </c>
       <c r="T2">
-        <v>0.003611904920999203</v>
+        <v>0.005020156313188761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.23960119633173</v>
+        <v>5.437669333333333</v>
       </c>
       <c r="H3">
-        <v>5.23960119633173</v>
+        <v>16.313008</v>
       </c>
       <c r="I3">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="J3">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.633009725245319</v>
+        <v>8.675077333333332</v>
       </c>
       <c r="N3">
-        <v>8.633009725245319</v>
+        <v>26.025232</v>
       </c>
       <c r="O3">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497798</v>
       </c>
       <c r="P3">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497797</v>
       </c>
       <c r="Q3">
-        <v>45.23352808433884</v>
+        <v>47.17220197976177</v>
       </c>
       <c r="R3">
-        <v>45.23352808433884</v>
+        <v>424.549817817856</v>
       </c>
       <c r="S3">
-        <v>0.09500799064943119</v>
+        <v>0.06758975845113088</v>
       </c>
       <c r="T3">
-        <v>0.09500799064943119</v>
+        <v>0.06758975845113087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.23960119633173</v>
+        <v>5.437669333333333</v>
       </c>
       <c r="H4">
-        <v>5.23960119633173</v>
+        <v>16.313008</v>
       </c>
       <c r="I4">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="J4">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.06542791218627</v>
+        <v>1.103747333333333</v>
       </c>
       <c r="N4">
-        <v>1.06542791218627</v>
+        <v>3.311242</v>
       </c>
       <c r="O4">
-        <v>0.07551886099073758</v>
+        <v>0.0594245052302395</v>
       </c>
       <c r="P4">
-        <v>0.07551886099073758</v>
+        <v>0.05942450523023948</v>
       </c>
       <c r="Q4">
-        <v>5.582417363296398</v>
+        <v>6.001813026215111</v>
       </c>
       <c r="R4">
-        <v>5.582417363296398</v>
+        <v>54.016317235936</v>
       </c>
       <c r="S4">
-        <v>0.01172524627449782</v>
+        <v>0.008599579321838113</v>
       </c>
       <c r="T4">
-        <v>0.01172524627449782</v>
+        <v>0.008599579321838111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.23960119633173</v>
+        <v>5.437669333333333</v>
       </c>
       <c r="H5">
-        <v>5.23960119633173</v>
+        <v>16.313008</v>
       </c>
       <c r="I5">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="J5">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.12462707057668</v>
+        <v>2.260419333333334</v>
       </c>
       <c r="N5">
-        <v>2.12462707057668</v>
+        <v>6.781258</v>
       </c>
       <c r="O5">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="P5">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="Q5">
-        <v>11.13219854075235</v>
+        <v>12.29141288934044</v>
       </c>
       <c r="R5">
-        <v>11.13219854075235</v>
+        <v>110.622716004064</v>
       </c>
       <c r="S5">
-        <v>0.02338194387347821</v>
+        <v>0.01761150833217544</v>
       </c>
       <c r="T5">
-        <v>0.02338194387347821</v>
+        <v>0.01761150833217544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.23960119633173</v>
+        <v>5.437669333333333</v>
       </c>
       <c r="H6">
-        <v>5.23960119633173</v>
+        <v>16.313008</v>
       </c>
       <c r="I6">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="J6">
-        <v>0.1552624883462679</v>
+        <v>0.144714361331561</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.95683898851633</v>
+        <v>5.890366333333334</v>
       </c>
       <c r="N6">
-        <v>1.95683898851633</v>
+        <v>17.671099</v>
       </c>
       <c r="O6">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="P6">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="Q6">
-        <v>10.25305590525874</v>
+        <v>32.02986437286578</v>
       </c>
       <c r="R6">
-        <v>10.25305590525874</v>
+        <v>288.268779355792</v>
       </c>
       <c r="S6">
-        <v>0.02153540262786149</v>
+        <v>0.04589335891322777</v>
       </c>
       <c r="T6">
-        <v>0.02153540262786149</v>
+        <v>0.04589335891322777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.7924341856897</v>
+        <v>24.47004433333333</v>
       </c>
       <c r="H7">
-        <v>23.7924341856897</v>
+        <v>73.410133</v>
       </c>
       <c r="I7">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="J7">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.328199871363496</v>
+        <v>0.644332</v>
       </c>
       <c r="N7">
-        <v>0.328199871363496</v>
+        <v>1.932996</v>
       </c>
       <c r="O7">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="P7">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="Q7">
-        <v>7.808673839167804</v>
+        <v>15.76683260538533</v>
       </c>
       <c r="R7">
-        <v>7.808673839167804</v>
+        <v>141.901493448468</v>
       </c>
       <c r="S7">
-        <v>0.01640125019018747</v>
+        <v>0.02259119486927099</v>
       </c>
       <c r="T7">
-        <v>0.01640125019018747</v>
+        <v>0.02259119486927099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.7924341856897</v>
+        <v>24.47004433333333</v>
       </c>
       <c r="H8">
-        <v>23.7924341856897</v>
+        <v>73.410133</v>
       </c>
       <c r="I8">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="J8">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.633009725245319</v>
+        <v>8.675077333333332</v>
       </c>
       <c r="N8">
-        <v>8.633009725245319</v>
+        <v>26.025232</v>
       </c>
       <c r="O8">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497798</v>
       </c>
       <c r="P8">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497797</v>
       </c>
       <c r="Q8">
-        <v>205.4003157123184</v>
+        <v>212.2795269417618</v>
       </c>
       <c r="R8">
-        <v>205.4003157123184</v>
+        <v>1910.515742475856</v>
       </c>
       <c r="S8">
-        <v>0.4314204993738419</v>
+        <v>0.3041605298872772</v>
       </c>
       <c r="T8">
-        <v>0.4314204993738419</v>
+        <v>0.3041605298872772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.7924341856897</v>
+        <v>24.47004433333333</v>
       </c>
       <c r="H9">
-        <v>23.7924341856897</v>
+        <v>73.410133</v>
       </c>
       <c r="I9">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="J9">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.06542791218627</v>
+        <v>1.103747333333333</v>
       </c>
       <c r="N9">
-        <v>1.06542791218627</v>
+        <v>3.311242</v>
       </c>
       <c r="O9">
-        <v>0.07551886099073758</v>
+        <v>0.0594245052302395</v>
       </c>
       <c r="P9">
-        <v>0.07551886099073758</v>
+        <v>0.05942450523023948</v>
       </c>
       <c r="Q9">
-        <v>25.34912348028861</v>
+        <v>27.00874617946511</v>
       </c>
       <c r="R9">
-        <v>25.34912348028861</v>
+        <v>243.078715615186</v>
       </c>
       <c r="S9">
-        <v>0.05324301217663331</v>
+        <v>0.03869894882416448</v>
       </c>
       <c r="T9">
-        <v>0.05324301217663331</v>
+        <v>0.03869894882416446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.7924341856897</v>
+        <v>24.47004433333333</v>
       </c>
       <c r="H10">
-        <v>23.7924341856897</v>
+        <v>73.410133</v>
       </c>
       <c r="I10">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="J10">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.12462707057668</v>
+        <v>2.260419333333334</v>
       </c>
       <c r="N10">
-        <v>2.12462707057668</v>
+        <v>6.781258</v>
       </c>
       <c r="O10">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="P10">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="Q10">
-        <v>50.55004974583036</v>
+        <v>55.31256129859045</v>
       </c>
       <c r="R10">
-        <v>50.55004974583036</v>
+        <v>497.813051687314</v>
       </c>
       <c r="S10">
-        <v>0.1061747526000067</v>
+        <v>0.07925351161451079</v>
       </c>
       <c r="T10">
-        <v>0.1061747526000067</v>
+        <v>0.07925351161451077</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.7924341856897</v>
+        <v>24.47004433333333</v>
       </c>
       <c r="H11">
-        <v>23.7924341856897</v>
+        <v>73.410133</v>
       </c>
       <c r="I11">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="J11">
-        <v>0.7050293327803711</v>
+        <v>0.6512287931422548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.95683898851633</v>
+        <v>5.890366333333334</v>
       </c>
       <c r="N11">
-        <v>1.95683898851633</v>
+        <v>17.671099</v>
       </c>
       <c r="O11">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="P11">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="Q11">
-        <v>46.55796284626638</v>
+        <v>144.1375253162408</v>
       </c>
       <c r="R11">
-        <v>46.55796284626638</v>
+        <v>1297.237727846167</v>
       </c>
       <c r="S11">
-        <v>0.09778981843970168</v>
+        <v>0.2065246079470314</v>
       </c>
       <c r="T11">
-        <v>0.09778981843970168</v>
+        <v>0.2065246079470313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.326458477070945</v>
+        <v>0.3392406666666667</v>
       </c>
       <c r="H12">
-        <v>0.326458477070945</v>
+        <v>1.017722</v>
       </c>
       <c r="I12">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052708</v>
       </c>
       <c r="J12">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052706</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.328199871363496</v>
+        <v>0.644332</v>
       </c>
       <c r="N12">
-        <v>0.328199871363496</v>
+        <v>1.932996</v>
       </c>
       <c r="O12">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="P12">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="Q12">
-        <v>0.107143630180207</v>
+        <v>0.2185836172346667</v>
       </c>
       <c r="R12">
-        <v>0.107143630180207</v>
+        <v>1.967252555112</v>
       </c>
       <c r="S12">
-        <v>0.0002250432686861685</v>
+        <v>0.0003131932212238904</v>
       </c>
       <c r="T12">
-        <v>0.0002250432686861685</v>
+        <v>0.0003131932212238903</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.326458477070945</v>
+        <v>0.3392406666666667</v>
       </c>
       <c r="H13">
-        <v>0.326458477070945</v>
+        <v>1.017722</v>
       </c>
       <c r="I13">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052708</v>
       </c>
       <c r="J13">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052706</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.633009725245319</v>
+        <v>8.675077333333332</v>
       </c>
       <c r="N13">
-        <v>8.633009725245319</v>
+        <v>26.025232</v>
       </c>
       <c r="O13">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497798</v>
       </c>
       <c r="P13">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497797</v>
       </c>
       <c r="Q13">
-        <v>2.818319207442244</v>
+        <v>2.942939017944889</v>
       </c>
       <c r="R13">
-        <v>2.818319207442244</v>
+        <v>26.486451161504</v>
       </c>
       <c r="S13">
-        <v>0.005919565778918146</v>
+        <v>0.004216732079724465</v>
       </c>
       <c r="T13">
-        <v>0.005919565778918146</v>
+        <v>0.004216732079724463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.326458477070945</v>
+        <v>0.3392406666666667</v>
       </c>
       <c r="H14">
-        <v>0.326458477070945</v>
+        <v>1.017722</v>
       </c>
       <c r="I14">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052708</v>
       </c>
       <c r="J14">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052706</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.06542791218627</v>
+        <v>1.103747333333333</v>
       </c>
       <c r="N14">
-        <v>1.06542791218627</v>
+        <v>3.311242</v>
       </c>
       <c r="O14">
-        <v>0.07551886099073758</v>
+        <v>0.0594245052302395</v>
       </c>
       <c r="P14">
-        <v>0.07551886099073758</v>
+        <v>0.05942450523023948</v>
       </c>
       <c r="Q14">
-        <v>0.3478179736412062</v>
+        <v>0.3744359811915556</v>
       </c>
       <c r="R14">
-        <v>0.3478179736412062</v>
+        <v>3.369923830724</v>
       </c>
       <c r="S14">
-        <v>0.0007305529368788975</v>
+        <v>0.0005365032044721445</v>
       </c>
       <c r="T14">
-        <v>0.0007305529368788975</v>
+        <v>0.0005365032044721442</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.326458477070945</v>
+        <v>0.3392406666666667</v>
       </c>
       <c r="H15">
-        <v>0.326458477070945</v>
+        <v>1.017722</v>
       </c>
       <c r="I15">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052708</v>
       </c>
       <c r="J15">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052706</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.12462707057668</v>
+        <v>2.260419333333334</v>
       </c>
       <c r="N15">
-        <v>2.12462707057668</v>
+        <v>6.781258</v>
       </c>
       <c r="O15">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="P15">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="Q15">
-        <v>0.693602517804166</v>
+        <v>0.7668261615862223</v>
       </c>
       <c r="R15">
-        <v>0.693602517804166</v>
+        <v>6.901435454276</v>
       </c>
       <c r="S15">
-        <v>0.001456834881486414</v>
+        <v>0.001098731728865593</v>
       </c>
       <c r="T15">
-        <v>0.001456834881486414</v>
+        <v>0.001098731728865593</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.326458477070945</v>
+        <v>0.3392406666666667</v>
       </c>
       <c r="H16">
-        <v>0.326458477070945</v>
+        <v>1.017722</v>
       </c>
       <c r="I16">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052708</v>
       </c>
       <c r="J16">
-        <v>0.009673781189158825</v>
+        <v>0.009028315884052706</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.95683898851633</v>
+        <v>5.890366333333334</v>
       </c>
       <c r="N16">
-        <v>1.95683898851633</v>
+        <v>17.671099</v>
       </c>
       <c r="O16">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="P16">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="Q16">
-        <v>0.6388266760640895</v>
+        <v>1.998251801830889</v>
       </c>
       <c r="R16">
-        <v>0.6388266760640895</v>
+        <v>17.984266216478</v>
       </c>
       <c r="S16">
-        <v>0.001341784323189199</v>
+        <v>0.002863155649766616</v>
       </c>
       <c r="T16">
-        <v>0.001341784323189199</v>
+        <v>0.002863155649766615</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.24456296334906</v>
+        <v>3.502039333333334</v>
       </c>
       <c r="H17">
-        <v>1.24456296334906</v>
+        <v>10.506118</v>
       </c>
       <c r="I17">
-        <v>0.03687951341191083</v>
+        <v>0.09320084661541371</v>
       </c>
       <c r="J17">
-        <v>0.03687951341191083</v>
+        <v>0.0932008466154137</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.328199871363496</v>
+        <v>0.644332</v>
       </c>
       <c r="N17">
-        <v>0.328199871363496</v>
+        <v>1.932996</v>
       </c>
       <c r="O17">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="P17">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="Q17">
-        <v>0.4084654044749328</v>
+        <v>2.256476007725334</v>
       </c>
       <c r="R17">
-        <v>0.4084654044749328</v>
+        <v>20.308284069528</v>
       </c>
       <c r="S17">
-        <v>0.0008579361144815682</v>
+        <v>0.003233147105966361</v>
       </c>
       <c r="T17">
-        <v>0.0008579361144815682</v>
+        <v>0.00323314710596636</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.24456296334906</v>
+        <v>3.502039333333334</v>
       </c>
       <c r="H18">
-        <v>1.24456296334906</v>
+        <v>10.506118</v>
       </c>
       <c r="I18">
-        <v>0.03687951341191083</v>
+        <v>0.09320084661541371</v>
       </c>
       <c r="J18">
-        <v>0.03687951341191083</v>
+        <v>0.0932008466154137</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.633009725245319</v>
+        <v>8.675077333333332</v>
       </c>
       <c r="N18">
-        <v>8.633009725245319</v>
+        <v>26.025232</v>
       </c>
       <c r="O18">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497798</v>
       </c>
       <c r="P18">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497797</v>
       </c>
       <c r="Q18">
-        <v>10.74432416627257</v>
+        <v>30.38046204104178</v>
       </c>
       <c r="R18">
-        <v>10.74432416627257</v>
+        <v>273.424158369376</v>
       </c>
       <c r="S18">
-        <v>0.02256725692544666</v>
+        <v>0.04353004534044723</v>
       </c>
       <c r="T18">
-        <v>0.02256725692544666</v>
+        <v>0.04353004534044722</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.24456296334906</v>
+        <v>3.502039333333334</v>
       </c>
       <c r="H19">
-        <v>1.24456296334906</v>
+        <v>10.506118</v>
       </c>
       <c r="I19">
-        <v>0.03687951341191083</v>
+        <v>0.09320084661541371</v>
       </c>
       <c r="J19">
-        <v>0.03687951341191083</v>
+        <v>0.0932008466154137</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.06542791218627</v>
+        <v>1.103747333333333</v>
       </c>
       <c r="N19">
-        <v>1.06542791218627</v>
+        <v>3.311242</v>
       </c>
       <c r="O19">
-        <v>0.07551886099073758</v>
+        <v>0.0594245052302395</v>
       </c>
       <c r="P19">
-        <v>0.07551886099073758</v>
+        <v>0.05942450523023948</v>
       </c>
       <c r="Q19">
-        <v>1.325992119625346</v>
+        <v>3.865366575395112</v>
       </c>
       <c r="R19">
-        <v>1.325992119625346</v>
+        <v>34.788299178556</v>
       </c>
       <c r="S19">
-        <v>0.002785098846760137</v>
+        <v>0.005538414197160402</v>
       </c>
       <c r="T19">
-        <v>0.002785098846760137</v>
+        <v>0.005538414197160399</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.24456296334906</v>
+        <v>3.502039333333334</v>
       </c>
       <c r="H20">
-        <v>1.24456296334906</v>
+        <v>10.506118</v>
       </c>
       <c r="I20">
-        <v>0.03687951341191083</v>
+        <v>0.09320084661541371</v>
       </c>
       <c r="J20">
-        <v>0.03687951341191083</v>
+        <v>0.0932008466154137</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.12462707057668</v>
+        <v>2.260419333333334</v>
       </c>
       <c r="N20">
-        <v>2.12462707057668</v>
+        <v>6.781258</v>
       </c>
       <c r="O20">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="P20">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="Q20">
-        <v>2.644232162968545</v>
+        <v>7.916077415160446</v>
       </c>
       <c r="R20">
-        <v>2.644232162968545</v>
+        <v>71.24469673644401</v>
       </c>
       <c r="S20">
-        <v>0.005553915320198548</v>
+        <v>0.011342395264921</v>
       </c>
       <c r="T20">
-        <v>0.005553915320198548</v>
+        <v>0.011342395264921</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.24456296334906</v>
+        <v>3.502039333333334</v>
       </c>
       <c r="H21">
-        <v>1.24456296334906</v>
+        <v>10.506118</v>
       </c>
       <c r="I21">
-        <v>0.03687951341191083</v>
+        <v>0.09320084661541371</v>
       </c>
       <c r="J21">
-        <v>0.03687951341191083</v>
+        <v>0.0932008466154137</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.95683898851633</v>
+        <v>5.890366333333334</v>
       </c>
       <c r="N21">
-        <v>1.95683898851633</v>
+        <v>17.671099</v>
       </c>
       <c r="O21">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="P21">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="Q21">
-        <v>2.435409330344861</v>
+        <v>20.62829458707578</v>
       </c>
       <c r="R21">
-        <v>2.435409330344861</v>
+        <v>185.654651283682</v>
       </c>
       <c r="S21">
-        <v>0.005115306205023916</v>
+        <v>0.02955684470691872</v>
       </c>
       <c r="T21">
-        <v>0.005115306205023916</v>
+        <v>0.02955684470691871</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.14367268150881</v>
+        <v>3.826194333333333</v>
       </c>
       <c r="H22">
-        <v>3.14367268150881</v>
+        <v>11.478583</v>
       </c>
       <c r="I22">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="J22">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.328199871363496</v>
+        <v>0.644332</v>
       </c>
       <c r="N22">
-        <v>0.328199871363496</v>
+        <v>1.932996</v>
       </c>
       <c r="O22">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="P22">
-        <v>0.02326321675937524</v>
+        <v>0.03469010447198725</v>
       </c>
       <c r="Q22">
-        <v>1.031752969680128</v>
+        <v>2.465339447185333</v>
       </c>
       <c r="R22">
-        <v>1.031752969680128</v>
+        <v>22.188055024668</v>
       </c>
       <c r="S22">
-        <v>0.002167082265020833</v>
+        <v>0.003532412962337247</v>
       </c>
       <c r="T22">
-        <v>0.002167082265020833</v>
+        <v>0.003532412962337246</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.14367268150881</v>
+        <v>3.826194333333333</v>
       </c>
       <c r="H23">
-        <v>3.14367268150881</v>
+        <v>11.478583</v>
       </c>
       <c r="I23">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="J23">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.633009725245319</v>
+        <v>8.675077333333332</v>
       </c>
       <c r="N23">
-        <v>8.633009725245319</v>
+        <v>26.025232</v>
       </c>
       <c r="O23">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497798</v>
       </c>
       <c r="P23">
-        <v>0.6119185107837731</v>
+        <v>0.4670563296497797</v>
       </c>
       <c r="Q23">
-        <v>27.13935683245359</v>
+        <v>33.19253173402844</v>
       </c>
       <c r="R23">
-        <v>27.13935683245359</v>
+        <v>298.732785606256</v>
       </c>
       <c r="S23">
-        <v>0.05700319805613534</v>
+        <v>0.04755926389120003</v>
       </c>
       <c r="T23">
-        <v>0.05700319805613534</v>
+        <v>0.04755926389120003</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.14367268150881</v>
+        <v>3.826194333333333</v>
       </c>
       <c r="H24">
-        <v>3.14367268150881</v>
+        <v>11.478583</v>
       </c>
       <c r="I24">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="J24">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.06542791218627</v>
+        <v>1.103747333333333</v>
       </c>
       <c r="N24">
-        <v>1.06542791218627</v>
+        <v>3.311242</v>
       </c>
       <c r="O24">
-        <v>0.07551886099073758</v>
+        <v>0.0594245052302395</v>
       </c>
       <c r="P24">
-        <v>0.07551886099073758</v>
+        <v>0.05942450523023948</v>
       </c>
       <c r="Q24">
-        <v>3.349356621656944</v>
+        <v>4.223151792231779</v>
       </c>
       <c r="R24">
-        <v>3.349356621656944</v>
+        <v>38.008366130086</v>
       </c>
       <c r="S24">
-        <v>0.007034950755967428</v>
+        <v>0.006051059682604368</v>
       </c>
       <c r="T24">
-        <v>0.007034950755967428</v>
+        <v>0.006051059682604365</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.14367268150881</v>
+        <v>3.826194333333333</v>
       </c>
       <c r="H25">
-        <v>3.14367268150881</v>
+        <v>11.478583</v>
       </c>
       <c r="I25">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="J25">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.12462707057668</v>
+        <v>2.260419333333334</v>
       </c>
       <c r="N25">
-        <v>2.12462707057668</v>
+        <v>6.781258</v>
       </c>
       <c r="O25">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="P25">
-        <v>0.1505962201335558</v>
+        <v>0.121698414518964</v>
       </c>
       <c r="Q25">
-        <v>6.679132080165998</v>
+        <v>8.648803644157113</v>
       </c>
       <c r="R25">
-        <v>6.679132080165998</v>
+        <v>77.839232797414</v>
       </c>
       <c r="S25">
-        <v>0.01402877345838593</v>
+        <v>0.01239226757849119</v>
       </c>
       <c r="T25">
-        <v>0.01402877345838593</v>
+        <v>0.01239226757849119</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.14367268150881</v>
+        <v>3.826194333333333</v>
       </c>
       <c r="H26">
-        <v>3.14367268150881</v>
+        <v>11.478583</v>
       </c>
       <c r="I26">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="J26">
-        <v>0.0931548842722915</v>
+        <v>0.1018276830267179</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.95683898851633</v>
+        <v>5.890366333333334</v>
       </c>
       <c r="N26">
-        <v>1.95683898851633</v>
+        <v>17.671099</v>
       </c>
       <c r="O26">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="P26">
-        <v>0.1387031913325582</v>
+        <v>0.3171306461290295</v>
       </c>
       <c r="Q26">
-        <v>6.151661270310118</v>
+        <v>22.53768628585745</v>
       </c>
       <c r="R26">
-        <v>6.151661270310118</v>
+        <v>202.839176572717</v>
       </c>
       <c r="S26">
-        <v>0.01292087973678197</v>
+        <v>0.03229267891208506</v>
       </c>
       <c r="T26">
-        <v>0.01292087973678197</v>
+        <v>0.03229267891208505</v>
       </c>
     </row>
   </sheetData>
